--- a/data/financial_statements/sofp/CMCSA.xlsx
+++ b/data/financial_statements/sofp/CMCSA.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>5695000000</v>
+        <v>5717000000</v>
       </c>
       <c r="C2">
-        <v>6822000000</v>
+        <v>6847000000</v>
       </c>
       <c r="D2">
-        <v>8880000000</v>
+        <v>8901000000</v>
       </c>
       <c r="E2">
-        <v>8711000000</v>
+        <v>8767000000</v>
       </c>
       <c r="F2">
-        <v>11806000000</v>
+        <v>11845000000</v>
       </c>
       <c r="G2">
         <v>12378000000</v>
@@ -736,8 +847,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>11918000000</v>
@@ -858,8 +969,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C4">
         <v>11956000000</v>
@@ -872,23 +983,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>5803000000</v>
+        <v>5781000000</v>
       </c>
       <c r="C5">
-        <v>5415000000</v>
+        <v>5390000000</v>
       </c>
       <c r="D5">
-        <v>4201000000</v>
+        <v>4180000000</v>
       </c>
       <c r="E5">
-        <v>4088000000</v>
+        <v>4032000000</v>
       </c>
       <c r="F5">
-        <v>3646000000</v>
+        <v>3607000000</v>
       </c>
       <c r="G5">
         <v>3558000000</v>
@@ -994,8 +1105,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>23416000000</v>
@@ -1116,8 +1227,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>53555000000</v>
@@ -1129,7 +1240,7 @@
         <v>53820000000</v>
       </c>
       <c r="E7">
-        <v>54047000000</v>
+        <v>60514000000</v>
       </c>
       <c r="F7">
         <v>52809000000</v>
@@ -1238,23 +1349,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>7857000000</v>
+        <v>7870000000</v>
       </c>
       <c r="C8">
-        <v>8240000000</v>
+        <v>8252000000</v>
       </c>
       <c r="D8">
-        <v>8933000000</v>
+        <v>8945000000</v>
       </c>
       <c r="E8">
-        <v>8687000000</v>
+        <v>8699000000</v>
       </c>
       <c r="F8">
-        <v>9726000000</v>
+        <v>9738000000</v>
       </c>
       <c r="G8">
         <v>9467000000</v>
@@ -1360,8 +1471,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>144383000000</v>
@@ -1482,23 +1593,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>25096000000</v>
+        <v>23333000000</v>
       </c>
       <c r="C10">
-        <v>24514000000</v>
+        <v>22767000000</v>
       </c>
       <c r="D10">
-        <v>25054000000</v>
+        <v>23267000000</v>
       </c>
       <c r="E10">
-        <v>25230000000</v>
+        <v>17119000000</v>
       </c>
       <c r="F10">
-        <v>24715000000</v>
+        <v>23679000000</v>
       </c>
       <c r="G10">
         <v>23607000000</v>
@@ -1604,8 +1715,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>230891000000</v>
@@ -1726,8 +1837,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>254308000000</v>
@@ -1848,8 +1959,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>12241000000</v>
@@ -1970,8 +2081,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>10954000000</v>
@@ -2092,8 +2203,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2047000000</v>
@@ -2105,7 +2216,7 @@
         <v>2117000000</v>
       </c>
       <c r="E15">
-        <v>2132000000</v>
+        <v>2898000000</v>
       </c>
       <c r="F15">
         <v>695000000</v>
@@ -2214,8 +2325,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2757000000</v>
@@ -2336,8 +2447,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>13711000000</v>
@@ -2377,8 +2488,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>27999000000</v>
@@ -2499,8 +2610,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>95576000000</v>
@@ -2512,7 +2623,7 @@
         <v>97614000000</v>
       </c>
       <c r="E19">
-        <v>97888000000</v>
+        <v>104361000000</v>
       </c>
       <c r="F19">
         <v>101691000000</v>
@@ -2621,8 +2732,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>701000000</v>
@@ -2662,8 +2773,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>29102000000</v>
@@ -2784,8 +2895,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>409000000</v>
@@ -2906,23 +3017,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>20288000000</v>
+        <v>19587000000</v>
       </c>
       <c r="C23">
-        <v>20254000000</v>
+        <v>19589000000</v>
       </c>
       <c r="D23">
-        <v>20441000000</v>
+        <v>19759000000</v>
       </c>
       <c r="E23">
-        <v>20620000000</v>
+        <v>13451000000</v>
       </c>
       <c r="F23">
-        <v>20756000000</v>
+        <v>20024000000</v>
       </c>
       <c r="G23">
         <v>20775000000</v>
@@ -3028,8 +3139,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>145375000000</v>
@@ -3150,23 +3261,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>173375000000</v>
+        <v>172965000000</v>
       </c>
       <c r="C25">
-        <v>174474000000</v>
+        <v>173960000000</v>
       </c>
       <c r="D25">
-        <v>178082000000</v>
+        <v>177569000000</v>
       </c>
       <c r="E25">
-        <v>178415000000</v>
+        <v>177896000000</v>
       </c>
       <c r="F25">
-        <v>179755000000</v>
+        <v>179235000000</v>
       </c>
       <c r="G25">
         <v>180488000000</v>
@@ -3272,8 +3383,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>39775000000</v>
@@ -3394,8 +3505,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>52000000</v>
@@ -3516,8 +3627,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>52541000000</v>
@@ -3638,8 +3749,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>7517000000</v>
@@ -3760,23 +3871,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>80933000000</v>
+        <v>80296000000</v>
       </c>
       <c r="C30">
-        <v>92559000000</v>
+        <v>91426000000</v>
       </c>
       <c r="D30">
-        <v>95991000000</v>
+        <v>94693000000</v>
       </c>
       <c r="E30">
-        <v>97490000000</v>
+        <v>96092000000</v>
       </c>
       <c r="F30">
-        <v>97306000000</v>
+        <v>95782000000</v>
       </c>
       <c r="G30">
         <v>96516000000</v>
@@ -3882,23 +3993,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>80933000000</v>
+        <v>80296000000</v>
       </c>
       <c r="C31">
-        <v>92558000000</v>
+        <v>91426000000</v>
       </c>
       <c r="D31">
-        <v>95992000000</v>
+        <v>94693000000</v>
       </c>
       <c r="E31">
-        <v>97490000000</v>
+        <v>96092000000</v>
       </c>
       <c r="F31">
-        <v>97306000000</v>
+        <v>95782000000</v>
       </c>
       <c r="G31">
         <v>96516000000</v>
@@ -4004,8 +4115,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>254308000000</v>
@@ -4126,8 +4237,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>4323408000</v>
@@ -4248,8 +4359,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-63450000000</v>
@@ -4370,23 +4481,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>91928000000</v>
+        <v>91906000000</v>
       </c>
       <c r="C35">
-        <v>91891000000</v>
+        <v>91866000000</v>
       </c>
       <c r="D35">
-        <v>90851000000</v>
+        <v>90830000000</v>
       </c>
       <c r="E35">
-        <v>91309000000</v>
+        <v>98492000000</v>
       </c>
       <c r="F35">
-        <v>90580000000</v>
+        <v>90541000000</v>
       </c>
       <c r="G35">
         <v>91373000000</v>
@@ -4492,8 +4603,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>97623000000</v>
@@ -4505,7 +4616,7 @@
         <v>99731000000</v>
       </c>
       <c r="E36">
-        <v>100020000000</v>
+        <v>107259000000</v>
       </c>
       <c r="F36">
         <v>102386000000</v>
